--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-701426.1615445951</v>
+        <v>-704002.6481658365</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>278.0818333067239</v>
+        <v>38.58627184703985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.0961330064688</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.07814032777054</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>90.12950298119301</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>3.182585533881204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.38124256042104</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>107.9683500771328</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>338.0377980055118</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.3794843124778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>68.86100075957567</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>264.6171092506985</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375794</v>
+        <v>147.3642529779084</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>84.87800743369236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>141.5888089825039</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.86766651429451</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.2052365248845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829028</v>
+        <v>1614.225191671744</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886161</v>
+        <v>1245.262674731332</v>
       </c>
       <c r="D2" t="n">
-        <v>332.1375272818656</v>
+        <v>886.996976124582</v>
       </c>
       <c r="E2" t="n">
-        <v>332.1375272818656</v>
+        <v>501.2087235263378</v>
       </c>
       <c r="F2" t="n">
-        <v>332.1375272818656</v>
+        <v>90.22281873673023</v>
       </c>
       <c r="G2" t="n">
-        <v>332.1375272818656</v>
+        <v>90.22281873673023</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>2000.825031735866</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>127.7128549540966</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>312.4344762351465</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666182</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258383</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4519,19 +4519,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1597.983352066648</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1343.298863860761</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C5" t="n">
-        <v>1681.836054204827</v>
+        <v>1270.470666346906</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.570355598076</v>
+        <v>912.204967740156</v>
       </c>
       <c r="E5" t="n">
-        <v>937.782102999832</v>
+        <v>912.204967740156</v>
       </c>
       <c r="F5" t="n">
-        <v>526.7961982102245</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>111.7237480552209</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1818.235608616641</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1563.551120410754</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="X7" t="n">
-        <v>902.4041387981149</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y7" t="n">
-        <v>681.6115596545848</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649823</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1156.721581898233</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>902.0370936923462</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>612.6199236553855</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>384.6303727573681</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5197,49 +5197,49 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y13" t="n">
         <v>1056.517090583878</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,19 +7014,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>14.25823202432851</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>244.3593074965599</v>
+        <v>99.58424457352412</v>
       </c>
       <c r="H2" t="n">
-        <v>22.93671925568151</v>
+        <v>262.4322807153656</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516648</v>
+        <v>138.8202214113358</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.6449909028987</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.37941682721026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1019872.46466656</v>
+        <v>1019872.464666559</v>
       </c>
     </row>
     <row r="3">
@@ -26344,10 +26344,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291437</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63651.90411497882</v>
+        <v>63651.90411497878</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768912</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768938</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768921</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486237</v>
@@ -26457,7 +26457,7 @@
         <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1064070.340005274</v>
+        <v>-1064395.685095556</v>
       </c>
       <c r="C6" t="n">
-        <v>-154194.3303073344</v>
+        <v>-154194.3303073341</v>
       </c>
       <c r="D6" t="n">
-        <v>49244.41130477158</v>
+        <v>49244.41130477132</v>
       </c>
       <c r="E6" t="n">
-        <v>-194338.1560460293</v>
+        <v>-194372.8939714653</v>
       </c>
       <c r="F6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358903</v>
       </c>
       <c r="G6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="H6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="I6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="J6" t="n">
-        <v>-36530.87204865679</v>
+        <v>-36565.60997409248</v>
       </c>
       <c r="K6" t="n">
-        <v>81964.21305527135</v>
+        <v>81929.4751298357</v>
       </c>
       <c r="L6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="M6" t="n">
-        <v>20727.66559136342</v>
+        <v>20727.66559136334</v>
       </c>
       <c r="N6" t="n">
-        <v>125210.4115205072</v>
+        <v>125210.411520507</v>
       </c>
       <c r="O6" t="n">
         <v>125210.4115205072</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>167.1883952763941</v>
+        <v>311.9634581994299</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.73584717546848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>248.1490137934301</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>316.7465427605184</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>291.4251788534393</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.4507376215163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>178.2434881284801</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>31.69330267295726</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.85845434357577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>79.75447225863668</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>21.59472895491439</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>347.4623967873087</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77.23845291524593</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34790,7 +34790,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>208.9080170074345</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
